--- a/biology/Médecine/William_Neale/William_Neale.xlsx
+++ b/biology/Médecine/William_Neale/William_Neale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Henry Neale (Batavia, 11 août 1857 -Londres, 15 juin 1939) est un médecin et explorateur britannique.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils d'un médecin de Batavia, Richard Neale, auteur du Medical digest, il fait ses études au University College Hospital et devient lui-même médecin en 1879[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils d'un médecin de Batavia, Richard Neale, auteur du Medical digest, il fait ses études au University College Hospital et devient lui-même médecin en 1879.
 Chirurgien sur l'Eira de l'expédition de Benjamin Leigh Smith dès 1880, au Svalbard et dans l'archipel François-Joseph, il l’accompagne, toujours sur le même navire, en 1881-1882 dans l'Arctique et avec Allen Young jusqu'en Nouvelle-Zemble.
 À son retour en 1883, il devient membre de la Royal Society et s'installe comme médecin à Londres.
 </t>
@@ -544,7 +558,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'île Levanevski porta d'abord son nom, qui lui avait été attribué par Frederick G. Jackson en 1895 et qu'elle porte encore parfois sur certaines cartes.
 </t>
